--- a/medicine/Médecine vétérinaire/Pelagonius/Pelagonius.xlsx
+++ b/medicine/Médecine vétérinaire/Pelagonius/Pelagonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelagonius Saloninus (IVe siècle)[1]  est l'auteur d'un compendium de médecine vétérinaire en latin intitulé Commentum artis medicinae ueterinariae (ou peut-être Liber commentorum artis medicinae ueterinariae) et concernant essentiellement les maladies des chevaux. Celui-ci fut traduit en grec à une époque inconnue et des fragments de cette traduction figurent dans le Corpus hippiatricorum Graecorum (CHG), appellation traditionnelle d'un ensemble de textes grecs d'origines et d'époques variées réunis à l'époque byzantine et relatifs, pour la plupart, aux chevaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelagonius Saloninus (IVe siècle)  est l'auteur d'un compendium de médecine vétérinaire en latin intitulé Commentum artis medicinae ueterinariae (ou peut-être Liber commentorum artis medicinae ueterinariae) et concernant essentiellement les maladies des chevaux. Celui-ci fut traduit en grec à une époque inconnue et des fragments de cette traduction figurent dans le Corpus hippiatricorum Graecorum (CHG), appellation traditionnelle d'un ensemble de textes grecs d'origines et d'époques variées réunis à l'époque byzantine et relatifs, pour la plupart, aux chevaux.
 Pelagonius a puisé à diverses sources, dont l'une, la Res rustica de Columelle (milieu du Ier siècle), est parvenue entièrement jusqu'à nous. Lui-même a été mis largement à contribution par Végèce.
-La première édition critique de référence de Pelagonius est due à Klaus-Dietrich Fischer (Leipzig, Teubner, 1980). Or, en 1989, Pierre-Paul Corsetti a signalé l'existence du manuscrit Einsiedeln, Stiftsbibl. 304 (VIIIe siècle/IXe siècle), qui permet de récupérer plusieurs sections du recueil originel soit entièrement nouvelles soit connues seulement par la tradition indirecte[2]. Cette découverte a donc rendu nécessaire une nouvelle édition de l'ouvrage, parue dans la Collection des universités de France et réalisée par Valérie Gitton-Ripoll, qui a publié de nombreux articles sur l'auteur et consacré sa thèse de doctorat de 3e cycle à une édition commentée du manuel en question (Université Lumière-Lyon-II, 1999).
+La première édition critique de référence de Pelagonius est due à Klaus-Dietrich Fischer (Leipzig, Teubner, 1980). Or, en 1989, Pierre-Paul Corsetti a signalé l'existence du manuscrit Einsiedeln, Stiftsbibl. 304 (VIIIe siècle/IXe siècle), qui permet de récupérer plusieurs sections du recueil originel soit entièrement nouvelles soit connues seulement par la tradition indirecte. Cette découverte a donc rendu nécessaire une nouvelle édition de l'ouvrage, parue dans la Collection des universités de France et réalisée par Valérie Gitton-Ripoll, qui a publié de nombreux articles sur l'auteur et consacré sa thèse de doctorat de 3e cycle à une édition commentée du manuel en question (Université Lumière-Lyon-II, 1999).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Édition contemporaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pélagonius Saloninus, Recueil de médecine vétérinaire, texte établi, traduit et commenté par Valérie Gitton-Ripoll, Paris, Les Belles Lettres, Collection des universités de France, 2019.
 </t>
